--- a/biology/Zoologie/Iaspis_ornata/Iaspis_ornata.xlsx
+++ b/biology/Zoologie/Iaspis_ornata/Iaspis_ornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iaspis ornata est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iaspis ornata a été décrit par George Austin (d) et Kurt Johnson (d) en 1996 [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iaspis ornata a été décrit par George Austin (d) et Kurt Johnson (d) en 1996 .
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Iaspis ornata est un petit papillon aux antennes et aux pattes annelées de blanc et de noir, avec deux fines queues, une longue et une très longue à chaque aile postérieure.
 Le dessus du mâle est bleu métallisé finement bordé de marron avec aux ailes antérieures une tache marron proche du milieu du bord costal, celui de la femelle est beige foncé.
@@ -572,12 +588,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iaspis ornata est présent au Brésil et en Guyane.
+</t>
         </is>
       </c>
     </row>
@@ -607,10 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iaspis ornata est présent au Brésil et en Guyane[1],[2],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Iaspis ornata, sur Wikimedia CommonsIaspis ornata, sur Wikispecies
 </t>
